--- a/server/scripts/Valuation_Request_data.xlsx
+++ b/server/scripts/Valuation_Request_data.xlsx
@@ -386,12 +386,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -494,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:BR2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AV1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BB2" activeCellId="0" sqref="BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -531,7 +527,7 @@
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="12.2672064777328"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="11.497975708502"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="19.4372469635628"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="19.4372469635628"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.73279352226721"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.06882591093117"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="44.6842105263158"/>
@@ -552,18 +548,18 @@
     <col collapsed="false" hidden="false" max="50" min="50" style="0" width="11.8259109311741"/>
     <col collapsed="false" hidden="false" max="51" min="51" style="0" width="10.5060728744939"/>
     <col collapsed="false" hidden="false" max="52" min="52" style="0" width="8.51821862348178"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="1" width="24.3643724696356"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="24.3643724696356"/>
     <col collapsed="false" hidden="false" max="54" min="54" style="0" width="7.63967611336032"/>
     <col collapsed="false" hidden="false" max="55" min="55" style="0" width="11.7206477732794"/>
     <col collapsed="false" hidden="false" max="56" min="56" style="0" width="8.63562753036437"/>
     <col collapsed="false" hidden="false" max="57" min="57" style="0" width="26.0526315789474"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="1" width="16.2024291497976"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="16.2024291497976"/>
     <col collapsed="false" hidden="false" max="59" min="59" style="0" width="19.4372469635628"/>
     <col collapsed="false" hidden="false" max="60" min="60" style="0" width="22.1943319838057"/>
     <col collapsed="false" hidden="false" max="61" min="61" style="0" width="22.6396761133603"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="0" width="12.9311740890688"/>
     <col collapsed="false" hidden="false" max="63" min="63" style="0" width="14.919028340081"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="1" width="20.0971659919028"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="20.0971659919028"/>
     <col collapsed="false" hidden="false" max="65" min="65" style="0" width="22.080971659919"/>
     <col collapsed="false" hidden="false" max="66" min="66" style="0" width="9.73279352226721"/>
     <col collapsed="false" hidden="false" max="67" min="67" style="0" width="61.336032388664"/>
@@ -574,382 +570,382 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BL1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>3927</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="3" t="n">
         <v>2007</v>
       </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="s">
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4" t="s">
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="3" t="n">
         <v>9021558466</v>
       </c>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4" t="s">
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4" t="s">
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AK2" s="4" t="n">
+      <c r="AK2" s="3" t="n">
         <v>9850631663</v>
       </c>
-      <c r="AL2" s="4" t="n">
+      <c r="AL2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4" t="s">
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4" t="s">
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4" t="s">
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4" t="s">
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AZ2" s="4" t="n">
+      <c r="AZ2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="BA2" s="5" t="n">
-        <v>42992.2049652778</v>
-      </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BA2" s="4" t="n">
+        <v>42991.2049652778</v>
+      </c>
+      <c r="BB2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BC2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BD2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BE2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="BF2" s="5" t="n">
+      <c r="BF2" s="4" t="n">
         <v>42991.4341898148</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BG2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BH2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BI2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4" t="s">
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="BL2" s="5" t="n">
+      <c r="BL2" s="4" t="n">
         <v>42996.4523032407</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BM2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BN2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BO2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="BP2" s="4" t="n">
+      <c r="BP2" s="3" t="n">
         <v>1600000</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BQ2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="BR2" s="4" t="n">
+      <c r="BR2" s="3" t="n">
         <v>0</v>
       </c>
     </row>
